--- a/docs/shrcore/shr-core-ProcedureRequest-model.xlsx
+++ b/docs/shrcore/shr-core-ProcedureRequest-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$44</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="176">
   <si>
     <t>Path</t>
   </si>
@@ -301,14 +301,50 @@
 For an Observation, the Code describes the aspect or property of the subject being observed or measured. The Code is the 'question code' that pairs to the 'answer' contained in the Value.</t>
   </si>
   <si>
-    <t>shr-core-ProcedureRequest-model.serviceBasedOn</t>
+    <t>shr-core-ProcedureRequest-model.serviceBasedOn[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>The original or initiating plan, proposal, or request.</t>
+  </si>
+  <si>
+    <t>shr-core-ProcedureRequest-model.serviceBasedOnShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
 </t>
   </si>
   <si>
-    <t>The original or initiating plan, proposal, or request.</t>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
+  </si>
+  <si>
+    <t>shr-core-ProcedureRequest-model.serviceBasedOnShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-ProcedureRequest-model.serviceBasedOnShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
   </si>
   <si>
     <t>shr-core-ProcedureRequest-model.code</t>
@@ -403,7 +439,7 @@
     <t>Request(s) replaced by this request</t>
   </si>
   <si>
-    <t>shr-core-ProcedureRequest-model.requisition</t>
+    <t>shr-core-ProcedureRequest-model.groupIdentifier</t>
   </si>
   <si>
     <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
@@ -702,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AI44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -712,7 +748,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="90.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.58984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2283,16 +2319,14 @@
         <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>88</v>
@@ -2314,7 +2348,9 @@
       <c r="A17" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="C17" t="s" s="2">
         <v>36</v>
       </c>
@@ -2335,13 +2371,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2368,11 +2404,13 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>36</v>
@@ -2390,13 +2428,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2409,13 +2447,15 @@
       <c r="A18" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>41</v>
@@ -2430,13 +2470,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2487,13 +2527,13 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
@@ -2504,15 +2544,17 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2527,13 +2569,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2584,13 +2626,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2601,7 +2643,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2627,10 +2669,10 @@
         <v>45</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2657,11 +2699,11 @@
         <v>36</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>36</v>
@@ -2679,7 +2721,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -2696,7 +2738,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2719,13 +2761,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2776,7 +2818,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2793,7 +2835,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2816,13 +2858,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2873,7 +2915,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2890,7 +2932,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2898,7 +2940,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>41</v>
@@ -2913,13 +2955,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2946,13 +2988,11 @@
         <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="X23" s="2"/>
       <c r="Y23" t="s" s="2">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>36</v>
@@ -2970,10 +3010,10 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>41</v>
@@ -2987,7 +3027,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3010,13 +3050,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3067,7 +3107,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -3084,7 +3124,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3095,7 +3135,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>36</v>
@@ -3107,13 +3147,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3164,13 +3204,13 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>36</v>
@@ -3181,7 +3221,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3192,7 +3232,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>36</v>
@@ -3204,13 +3244,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3261,13 +3301,13 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>36</v>
@@ -3278,7 +3318,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3301,13 +3341,13 @@
         <v>36</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3358,7 +3398,7 @@
         <v>36</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>37</v>
@@ -3375,7 +3415,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3386,7 +3426,7 @@
         <v>37</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>36</v>
@@ -3398,13 +3438,13 @@
         <v>36</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3455,13 +3495,13 @@
         <v>36</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>36</v>
@@ -3472,7 +3512,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3495,13 +3535,13 @@
         <v>36</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3528,11 +3568,13 @@
         <v>36</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="X29" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>36</v>
@@ -3550,7 +3592,7 @@
         <v>36</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>37</v>
@@ -3567,7 +3609,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3590,13 +3632,13 @@
         <v>36</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3647,7 +3689,7 @@
         <v>36</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>37</v>
@@ -3664,7 +3706,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3672,7 +3714,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>41</v>
@@ -3687,13 +3729,13 @@
         <v>36</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3744,10 +3786,10 @@
         <v>36</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>41</v>
@@ -3761,7 +3803,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3772,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>36</v>
@@ -3784,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>137</v>
@@ -3817,13 +3859,11 @@
         <v>36</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>36</v>
@@ -3841,13 +3881,13 @@
         <v>36</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>36</v>
@@ -3858,7 +3898,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -3869,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>36</v>
@@ -3881,13 +3921,13 @@
         <v>36</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -3938,13 +3978,13 @@
         <v>36</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>36</v>
@@ -3955,7 +3995,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -3963,10 +4003,10 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>36</v>
@@ -3978,13 +4018,13 @@
         <v>36</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4035,13 +4075,13 @@
         <v>36</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>36</v>
@@ -4052,7 +4092,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4063,7 +4103,7 @@
         <v>37</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>36</v>
@@ -4075,13 +4115,13 @@
         <v>36</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4117,28 +4157,28 @@
         <v>36</v>
       </c>
       <c r="Z35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>36</v>
@@ -4149,7 +4189,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4172,13 +4212,13 @@
         <v>36</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4229,7 +4269,7 @@
         <v>36</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>37</v>
@@ -4246,7 +4286,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4269,13 +4309,13 @@
         <v>36</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4326,7 +4366,7 @@
         <v>36</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>37</v>
@@ -4343,7 +4383,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4366,10 +4406,10 @@
         <v>36</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>156</v>
@@ -4408,7 +4448,7 @@
         <v>36</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>36</v>
@@ -4423,7 +4463,7 @@
         <v>36</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>37</v>
@@ -4440,7 +4480,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4451,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>36</v>
@@ -4463,13 +4503,13 @@
         <v>36</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4520,13 +4560,13 @@
         <v>36</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>36</v>
@@ -4537,7 +4577,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4548,7 +4588,7 @@
         <v>37</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>36</v>
@@ -4560,13 +4600,13 @@
         <v>36</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4617,13 +4657,13 @@
         <v>36</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>36</v>
@@ -4634,7 +4674,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4645,7 +4685,7 @@
         <v>37</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>36</v>
@@ -4657,13 +4697,13 @@
         <v>36</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -4714,23 +4754,314 @@
         <v>36</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI44" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI41">
+  <autoFilter ref="A1:AI44">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4740,7 +5071,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI40">
+  <conditionalFormatting sqref="A2:AI43">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
